--- a/patient_data/patient_70.xlsx
+++ b/patient_data/patient_70.xlsx
@@ -681,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1140,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1368,13 +1368,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1445,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1599,13 +1599,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1964,13 +1964,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2041,13 +2041,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2118,13 +2118,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2195,13 +2195,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2215,16 +2215,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2272,13 +2272,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
